--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H2">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I2">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J2">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.9936586396671</v>
+        <v>32.017979</v>
       </c>
       <c r="N2">
-        <v>27.9936586396671</v>
+        <v>96.05393700000002</v>
       </c>
       <c r="O2">
-        <v>0.2032030266474163</v>
+        <v>0.2161524839374964</v>
       </c>
       <c r="P2">
-        <v>0.2032030266474163</v>
+        <v>0.2161524839374964</v>
       </c>
       <c r="Q2">
-        <v>82.07598697734882</v>
+        <v>169.2743910207257</v>
       </c>
       <c r="R2">
-        <v>82.07598697734882</v>
+        <v>1523.469519186531</v>
       </c>
       <c r="S2">
-        <v>0.068067177794607</v>
+        <v>0.08808428036450418</v>
       </c>
       <c r="T2">
-        <v>0.068067177794607</v>
+        <v>0.08808428036450416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H3">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I3">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J3">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.7934536953541</v>
+        <v>27.90901333333333</v>
       </c>
       <c r="N3">
-        <v>27.7934536953541</v>
+        <v>83.72704</v>
       </c>
       <c r="O3">
-        <v>0.2017497599930701</v>
+        <v>0.1884129712323413</v>
       </c>
       <c r="P3">
-        <v>0.2017497599930701</v>
+        <v>0.1884129712323412</v>
       </c>
       <c r="Q3">
-        <v>81.48899623727634</v>
+        <v>147.5508880803911</v>
       </c>
       <c r="R3">
-        <v>81.48899623727634</v>
+        <v>1327.95799272352</v>
       </c>
       <c r="S3">
-        <v>0.06758037520423024</v>
+        <v>0.07678015389884597</v>
       </c>
       <c r="T3">
-        <v>0.06758037520423024</v>
+        <v>0.07678015389884596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H4">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I4">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J4">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.5157406275781</v>
+        <v>20.29987433333334</v>
       </c>
       <c r="N4">
-        <v>18.5157406275781</v>
+        <v>60.89962300000001</v>
       </c>
       <c r="O4">
-        <v>0.1344038156845634</v>
+        <v>0.1370438858982645</v>
       </c>
       <c r="P4">
-        <v>0.1344038156845634</v>
+        <v>0.1370438858982645</v>
       </c>
       <c r="Q4">
-        <v>54.28721219282329</v>
+        <v>107.3224785853054</v>
       </c>
       <c r="R4">
-        <v>54.28721219282329</v>
+        <v>965.9023072677491</v>
       </c>
       <c r="S4">
-        <v>0.04502141808324824</v>
+        <v>0.05584674229880455</v>
       </c>
       <c r="T4">
-        <v>0.04502141808324824</v>
+        <v>0.05584674229880453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H5">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I5">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J5">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.2072050737199</v>
+        <v>22.468903</v>
       </c>
       <c r="N5">
-        <v>22.2072050737199</v>
+        <v>67.40670900000001</v>
       </c>
       <c r="O5">
-        <v>0.1611997682205575</v>
+        <v>0.1516869379794604</v>
       </c>
       <c r="P5">
-        <v>0.1611997682205575</v>
+        <v>0.1516869379794604</v>
       </c>
       <c r="Q5">
-        <v>65.11039867619192</v>
+        <v>118.7898171907963</v>
       </c>
       <c r="R5">
-        <v>65.11039867619192</v>
+        <v>1069.108354717167</v>
       </c>
       <c r="S5">
-        <v>0.05399729258440964</v>
+        <v>0.06181393120830172</v>
       </c>
       <c r="T5">
-        <v>0.05399729258440964</v>
+        <v>0.0618139312083017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H6">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I6">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J6">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.1174268025661</v>
+        <v>17.57385566666667</v>
       </c>
       <c r="N6">
-        <v>17.1174268025661</v>
+        <v>52.721567</v>
       </c>
       <c r="O6">
-        <v>0.1242536025558395</v>
+        <v>0.1186406098495176</v>
       </c>
       <c r="P6">
-        <v>0.1242536025558395</v>
+        <v>0.1186406098495176</v>
       </c>
       <c r="Q6">
-        <v>50.18742699613931</v>
+        <v>92.91041498469123</v>
       </c>
       <c r="R6">
-        <v>50.18742699613931</v>
+        <v>836.1937348622209</v>
       </c>
       <c r="S6">
-        <v>0.04162138820630749</v>
+        <v>0.04834722483976884</v>
       </c>
       <c r="T6">
-        <v>0.04162138820630749</v>
+        <v>0.04834722483976883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.93194926871927</v>
+        <v>5.286854333333333</v>
       </c>
       <c r="H7">
-        <v>2.93194926871927</v>
+        <v>15.860563</v>
       </c>
       <c r="I7">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="J7">
-        <v>0.3349712793043796</v>
+        <v>0.4075099150374557</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.1345313157251</v>
+        <v>27.85718966666667</v>
       </c>
       <c r="N7">
-        <v>24.1345313157251</v>
+        <v>83.571569</v>
       </c>
       <c r="O7">
-        <v>0.175190026898553</v>
+        <v>0.1880631111029199</v>
       </c>
       <c r="P7">
-        <v>0.175190026898553</v>
+        <v>0.1880631111029199</v>
       </c>
       <c r="Q7">
-        <v>70.76122144202252</v>
+        <v>147.2769039037052</v>
       </c>
       <c r="R7">
-        <v>70.76122144202252</v>
+        <v>1325.492135133347</v>
       </c>
       <c r="S7">
-        <v>0.05868362743157699</v>
+        <v>0.0766375824272305</v>
       </c>
       <c r="T7">
-        <v>0.05868362743157699</v>
+        <v>0.07663758242723048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H8">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I8">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J8">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.9936586396671</v>
+        <v>32.017979</v>
       </c>
       <c r="N8">
-        <v>27.9936586396671</v>
+        <v>96.05393700000002</v>
       </c>
       <c r="O8">
-        <v>0.2032030266474163</v>
+        <v>0.2161524839374964</v>
       </c>
       <c r="P8">
-        <v>0.2032030266474163</v>
+        <v>0.2161524839374964</v>
       </c>
       <c r="Q8">
-        <v>74.5350626049507</v>
+        <v>97.20129060480535</v>
       </c>
       <c r="R8">
-        <v>74.5350626049507</v>
+        <v>874.8116154432482</v>
       </c>
       <c r="S8">
-        <v>0.06181334571905284</v>
+        <v>0.0505800415632688</v>
       </c>
       <c r="T8">
-        <v>0.06181334571905284</v>
+        <v>0.0505800415632688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H9">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I9">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J9">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.7934536953541</v>
+        <v>27.90901333333333</v>
       </c>
       <c r="N9">
-        <v>27.7934536953541</v>
+        <v>83.72704</v>
       </c>
       <c r="O9">
-        <v>0.2017497599930701</v>
+        <v>0.1884129712323413</v>
       </c>
       <c r="P9">
-        <v>0.2017497599930701</v>
+        <v>0.1884129712323412</v>
       </c>
       <c r="Q9">
-        <v>74.00200301991148</v>
+        <v>84.72715018979555</v>
       </c>
       <c r="R9">
-        <v>74.00200301991148</v>
+        <v>762.5443517081601</v>
       </c>
       <c r="S9">
-        <v>0.06137126926178164</v>
+        <v>0.04408894934904614</v>
       </c>
       <c r="T9">
-        <v>0.06137126926178164</v>
+        <v>0.04408894934904613</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H10">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I10">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J10">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.5157406275781</v>
+        <v>20.29987433333334</v>
       </c>
       <c r="N10">
-        <v>18.5157406275781</v>
+        <v>60.89962300000001</v>
       </c>
       <c r="O10">
-        <v>0.1344038156845634</v>
+        <v>0.1370438858982645</v>
       </c>
       <c r="P10">
-        <v>0.1344038156845634</v>
+        <v>0.1370438858982645</v>
       </c>
       <c r="Q10">
-        <v>49.29944687179962</v>
+        <v>61.62706223011023</v>
       </c>
       <c r="R10">
-        <v>49.29944687179962</v>
+        <v>554.6435600709921</v>
       </c>
       <c r="S10">
-        <v>0.04088496939213974</v>
+        <v>0.0320684977496279</v>
       </c>
       <c r="T10">
-        <v>0.04088496939213974</v>
+        <v>0.0320684977496279</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H11">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I11">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J11">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.2072050737199</v>
+        <v>22.468903</v>
       </c>
       <c r="N11">
-        <v>22.2072050737199</v>
+        <v>67.40670900000001</v>
       </c>
       <c r="O11">
-        <v>0.1611997682205575</v>
+        <v>0.1516869379794604</v>
       </c>
       <c r="P11">
-        <v>0.1611997682205575</v>
+        <v>0.1516869379794604</v>
       </c>
       <c r="Q11">
-        <v>59.12822763742808</v>
+        <v>68.21187464937067</v>
       </c>
       <c r="R11">
-        <v>59.12822763742808</v>
+        <v>613.9068718443361</v>
       </c>
       <c r="S11">
-        <v>0.04903616430939221</v>
+        <v>0.03549499634630453</v>
       </c>
       <c r="T11">
-        <v>0.04903616430939221</v>
+        <v>0.03549499634630452</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H12">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I12">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J12">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.1174268025661</v>
+        <v>17.57385566666667</v>
       </c>
       <c r="N12">
-        <v>17.1174268025661</v>
+        <v>52.721567</v>
       </c>
       <c r="O12">
-        <v>0.1242536025558395</v>
+        <v>0.1186406098495176</v>
       </c>
       <c r="P12">
-        <v>0.1242536025558395</v>
+        <v>0.1186406098495176</v>
       </c>
       <c r="Q12">
-        <v>45.57633908406113</v>
+        <v>53.35132025986311</v>
       </c>
       <c r="R12">
-        <v>45.57633908406113</v>
+        <v>480.161882338768</v>
       </c>
       <c r="S12">
-        <v>0.03779732525809575</v>
+        <v>0.02776210047632572</v>
       </c>
       <c r="T12">
-        <v>0.03779732525809575</v>
+        <v>0.02776210047632571</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.66256953277748</v>
+        <v>3.035834666666667</v>
       </c>
       <c r="H13">
-        <v>2.66256953277748</v>
+        <v>9.107504</v>
       </c>
       <c r="I13">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="J13">
-        <v>0.3041950050591866</v>
+        <v>0.2340016669801247</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.1345313157251</v>
+        <v>27.85718966666667</v>
       </c>
       <c r="N13">
-        <v>24.1345313157251</v>
+        <v>83.571569</v>
       </c>
       <c r="O13">
-        <v>0.175190026898553</v>
+        <v>0.1880631111029199</v>
       </c>
       <c r="P13">
-        <v>0.175190026898553</v>
+        <v>0.1880631111029199</v>
       </c>
       <c r="Q13">
-        <v>64.25986776911363</v>
+        <v>84.56982210597511</v>
       </c>
       <c r="R13">
-        <v>64.25986776911363</v>
+        <v>761.128398953776</v>
       </c>
       <c r="S13">
-        <v>0.05329193111872438</v>
+        <v>0.04400708149555167</v>
       </c>
       <c r="T13">
-        <v>0.05329193111872438</v>
+        <v>0.04400708149555167</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.15831897853001</v>
+        <v>4.650871</v>
       </c>
       <c r="H14">
-        <v>3.15831897853001</v>
+        <v>13.952613</v>
       </c>
       <c r="I14">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="J14">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.9936586396671</v>
+        <v>32.017979</v>
       </c>
       <c r="N14">
-        <v>27.9936586396671</v>
+        <v>96.05393700000002</v>
       </c>
       <c r="O14">
-        <v>0.2032030266474163</v>
+        <v>0.2161524839374964</v>
       </c>
       <c r="P14">
-        <v>0.2032030266474163</v>
+        <v>0.2161524839374964</v>
       </c>
       <c r="Q14">
-        <v>88.41290336015118</v>
+        <v>148.911490009709</v>
       </c>
       <c r="R14">
-        <v>88.41290336015118</v>
+        <v>1340.203410087381</v>
       </c>
       <c r="S14">
-        <v>0.0733225031337565</v>
+        <v>0.07748816200972346</v>
       </c>
       <c r="T14">
-        <v>0.0733225031337565</v>
+        <v>0.07748816200972347</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.15831897853001</v>
+        <v>4.650871</v>
       </c>
       <c r="H15">
-        <v>3.15831897853001</v>
+        <v>13.952613</v>
       </c>
       <c r="I15">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="J15">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.7934536953541</v>
+        <v>27.90901333333333</v>
       </c>
       <c r="N15">
-        <v>27.7934536953541</v>
+        <v>83.72704</v>
       </c>
       <c r="O15">
-        <v>0.2017497599930701</v>
+        <v>0.1884129712323413</v>
       </c>
       <c r="P15">
-        <v>0.2017497599930701</v>
+        <v>0.1884129712323412</v>
       </c>
       <c r="Q15">
-        <v>87.78059228493188</v>
+        <v>129.8012207506133</v>
       </c>
       <c r="R15">
-        <v>87.78059228493188</v>
+        <v>1168.21098675552</v>
       </c>
       <c r="S15">
-        <v>0.07279811552705823</v>
+        <v>0.06754386798444915</v>
       </c>
       <c r="T15">
-        <v>0.07279811552705823</v>
+        <v>0.06754386798444915</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.15831897853001</v>
+        <v>4.650871</v>
       </c>
       <c r="H16">
-        <v>3.15831897853001</v>
+        <v>13.952613</v>
       </c>
       <c r="I16">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="J16">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.5157406275781</v>
+        <v>20.29987433333334</v>
       </c>
       <c r="N16">
-        <v>18.5157406275781</v>
+        <v>60.89962300000001</v>
       </c>
       <c r="O16">
-        <v>0.1344038156845634</v>
+        <v>0.1370438858982645</v>
       </c>
       <c r="P16">
-        <v>0.1344038156845634</v>
+        <v>0.1370438858982645</v>
       </c>
       <c r="Q16">
-        <v>58.47861502561907</v>
+        <v>94.41209684054434</v>
       </c>
       <c r="R16">
-        <v>58.47861502561907</v>
+        <v>849.708871564899</v>
       </c>
       <c r="S16">
-        <v>0.04849742820917539</v>
+        <v>0.04912864584983207</v>
       </c>
       <c r="T16">
-        <v>0.04849742820917539</v>
+        <v>0.04912864584983207</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.15831897853001</v>
+        <v>4.650871</v>
       </c>
       <c r="H17">
-        <v>3.15831897853001</v>
+        <v>13.952613</v>
       </c>
       <c r="I17">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="J17">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.2072050737199</v>
+        <v>22.468903</v>
       </c>
       <c r="N17">
-        <v>22.2072050737199</v>
+        <v>67.40670900000001</v>
       </c>
       <c r="O17">
-        <v>0.1611997682205575</v>
+        <v>0.1516869379794604</v>
       </c>
       <c r="P17">
-        <v>0.1611997682205575</v>
+        <v>0.1516869379794604</v>
       </c>
       <c r="Q17">
-        <v>70.13743724443749</v>
+        <v>104.499969364513</v>
       </c>
       <c r="R17">
-        <v>70.13743724443749</v>
+        <v>940.4997242806171</v>
       </c>
       <c r="S17">
-        <v>0.0581663113267557</v>
+        <v>0.05437801042485416</v>
       </c>
       <c r="T17">
-        <v>0.0581663113267557</v>
+        <v>0.05437801042485416</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.15831897853001</v>
+        <v>4.650871</v>
       </c>
       <c r="H18">
-        <v>3.15831897853001</v>
+        <v>13.952613</v>
       </c>
       <c r="I18">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="J18">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.1174268025661</v>
+        <v>17.57385566666667</v>
       </c>
       <c r="N18">
-        <v>17.1174268025661</v>
+        <v>52.721567</v>
       </c>
       <c r="O18">
-        <v>0.1242536025558395</v>
+        <v>0.1186406098495176</v>
       </c>
       <c r="P18">
-        <v>0.1242536025558395</v>
+        <v>0.1186406098495176</v>
       </c>
       <c r="Q18">
-        <v>54.06229393414278</v>
+        <v>81.73373567828565</v>
       </c>
       <c r="R18">
-        <v>54.06229393414278</v>
+        <v>735.6036211045709</v>
       </c>
       <c r="S18">
-        <v>0.04483488909143624</v>
+        <v>0.04253128453342302</v>
       </c>
       <c r="T18">
-        <v>0.04483488909143624</v>
+        <v>0.04253128453342302</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.15831897853001</v>
+        <v>4.650871</v>
       </c>
       <c r="H19">
-        <v>3.15831897853001</v>
+        <v>13.952613</v>
       </c>
       <c r="I19">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="J19">
-        <v>0.3608337156364338</v>
+        <v>0.3584884179824196</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.1345313157251</v>
+        <v>27.85718966666667</v>
       </c>
       <c r="N19">
-        <v>24.1345313157251</v>
+        <v>83.571569</v>
       </c>
       <c r="O19">
-        <v>0.175190026898553</v>
+        <v>0.1880631111029199</v>
       </c>
       <c r="P19">
-        <v>0.175190026898553</v>
+        <v>0.1880631111029199</v>
       </c>
       <c r="Q19">
-        <v>76.22454829238143</v>
+        <v>129.5601955621997</v>
       </c>
       <c r="R19">
-        <v>76.22454829238143</v>
+        <v>1166.041760059797</v>
       </c>
       <c r="S19">
-        <v>0.06321446834825167</v>
+        <v>0.06741844718013777</v>
       </c>
       <c r="T19">
-        <v>0.06321446834825167</v>
+        <v>0.06741844718013779</v>
       </c>
     </row>
   </sheetData>
